--- a/exe/sample/sample_Analysis.xlsx
+++ b/exe/sample/sample_Analysis.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="シーケンス図" sheetId="1" r:id="R2f70e946db854178"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="元データ" sheetId="2" r:id="R60ef310fb6ed4531"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="シーケンス図" sheetId="1" r:id="Ra9988de5ae05472f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="元データ" sheetId="2" r:id="R4473e6246be2464e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -512,8 +512,8 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:headEnd type="triangle" w="lg" len="lg"/>
-          <a:tailEnd type="none" w="med" len="med"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -564,8 +564,8 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
+          <a:headEnd type="triangle" w="lg" len="lg"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -924,7 +924,7 @@
     </x:row>
     <x:row r="6" s="2" customFormat="1">
       <x:c r="A6" s="2" t="str">
-        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\nakasato\SequenceMaker_1.0.0.2\exe\sample\sample_Analysis.xlsx]元データ!A1",元データ!A1)</x:f>
+        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\SequenceMaker\exe\sample\sample_Analysis.xlsx]元データ!A1",元データ!A1)</x:f>
       </x:c>
       <x:c r="N6" s="3"/>
       <x:c r="Z6" s="3"/>
@@ -968,7 +968,7 @@
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="str">
-        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\nakasato\SequenceMaker_1.0.0.2\exe\sample\sample_Analysis.xlsx]元データ!A2",元データ!A2)</x:f>
+        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\SequenceMaker\exe\sample\sample_Analysis.xlsx]元データ!A2",元データ!A2)</x:f>
       </x:c>
       <x:c r="N13" s="1"/>
       <x:c r="Z13" s="1"/>
@@ -1012,12 +1012,11 @@
     </x:row>
     <x:row r="20">
       <x:c r="A20" t="str">
-        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\nakasato\SequenceMaker_1.0.0.2\exe\sample\sample_Analysis.xlsx]元データ!A3",元データ!A3)</x:f>
+        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\SequenceMaker\exe\sample\sample_Analysis.xlsx]元データ!A3",元データ!A3)</x:f>
       </x:c>
       <x:c r="N20" s="1"/>
-      <x:c r="Z20" s="1"/>
-      <x:c r="AK20" s="4" t="str">
-        <x:v>Request(A) : Opt1=On Opt2=Off</x:v>
+      <x:c r="Z20" s="1" t="str">
+        <x:v>0x0400 : 0x01</x:v>
       </x:c>
       <x:c r="AL20" s="1"/>
     </x:row>
@@ -1041,11 +1040,12 @@
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="str">
-        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\nakasato\SequenceMaker_1.0.0.2\exe\sample\sample_Analysis.xlsx]元データ!A4",元データ!A4)</x:f>
+        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\SequenceMaker\exe\sample\sample_Analysis.xlsx]元データ!A4",元データ!A4)</x:f>
       </x:c>
       <x:c r="N24" s="1"/>
-      <x:c r="Z24" s="1" t="str">
-        <x:v>Request(A)</x:v>
+      <x:c r="Z24" s="1"/>
+      <x:c r="AK24" s="4" t="str">
+        <x:v>0x0401 : 0xFF</x:v>
       </x:c>
       <x:c r="AL24" s="1"/>
     </x:row>
@@ -1069,7 +1069,7 @@
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="str">
-        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\nakasato\SequenceMaker_1.0.0.2\exe\sample\sample_Analysis.xlsx]元データ!A5",元データ!A5)</x:f>
+        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\SequenceMaker\exe\sample\sample_Analysis.xlsx]元データ!A5",元データ!A5)</x:f>
       </x:c>
       <x:c r="N28" s="1"/>
       <x:c r="Z28" s="1" t="str">
@@ -1097,7 +1097,7 @@
     </x:row>
     <x:row r="32" s="5" customFormat="1">
       <x:c r="A32" s="5" t="str">
-        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\nakasato\SequenceMaker_1.0.0.2\exe\sample\sample_Analysis.xlsx]元データ!A6",元データ!A6)</x:f>
+        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\SequenceMaker\exe\sample\sample_Analysis.xlsx]元データ!A6",元データ!A6)</x:f>
       </x:c>
       <x:c r="N32" s="6"/>
       <x:c r="Z32" s="6"/>
@@ -1141,7 +1141,7 @@
     </x:row>
     <x:row r="39" s="2" customFormat="1">
       <x:c r="A39" s="2" t="str">
-        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\nakasato\SequenceMaker_1.0.0.2\exe\sample\sample_Analysis.xlsx]元データ!A7",元データ!A7)</x:f>
+        <x:f>=HYPERLINK("[C:\Users\n-nakasato\Desktop\SequenceMaker\exe\sample\sample_Analysis.xlsx]元データ!A7",元データ!A7)</x:f>
       </x:c>
       <x:c r="N39" s="3"/>
       <x:c r="Z39" s="3"/>
@@ -1184,7 +1184,7 @@
       <x:c r="AL45" s="1"/>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2f70e946db854178"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra9988de5ae05472f"/>
 </x:worksheet>
 </file>
 
@@ -1261,10 +1261,10 @@
         <x:v>MSG</x:v>
       </x:c>
       <x:c r="C3" t="str">
+        <x:v>TaskB</x:v>
+      </x:c>
+      <x:c r="D3" t="str">
         <x:v>TaskA</x:v>
-      </x:c>
-      <x:c r="D3" t="str">
-        <x:v>TaskB</x:v>
       </x:c>
       <x:c r="E3" t="str">
         <x:v>3</x:v>
@@ -1273,14 +1273,13 @@
         <x:v>Snd</x:v>
       </x:c>
       <x:c r="G3" t="str">
-        <x:v>Request(A)</x:v>
+        <x:v>0x0400</x:v>
       </x:c>
       <x:c r="H3" t="str">
-        <x:v>Opt1=On Opt2=Off
-</x:v>
+        <x:v>0x01</x:v>
       </x:c>
       <x:c r="I3" t="str">
-        <x:v>2016-02-22 14:24:30.054,SEQ,MSG,TaskA,TaskB,3,S,Request(A),Opt1=On Opt2=Off
+        <x:v>2016-02-22 14:24:30.054,SEQ,MSG,TaskB,TaskA,3,S,0x0400,0x01,0x00
 </x:v>
       </x:c>
     </x:row>
@@ -1292,10 +1291,10 @@
         <x:v>MSG</x:v>
       </x:c>
       <x:c r="C4" t="str">
+        <x:v>TaskA</x:v>
+      </x:c>
+      <x:c r="D4" t="str">
         <x:v>TaskB</x:v>
-      </x:c>
-      <x:c r="D4" t="str">
-        <x:v>TaskA</x:v>
       </x:c>
       <x:c r="E4" t="str">
         <x:v>4</x:v>
@@ -1304,14 +1303,14 @@
         <x:v>Snd</x:v>
       </x:c>
       <x:c r="G4" t="str">
-        <x:v>Request(A)
+        <x:v>0x0401</x:v>
+      </x:c>
+      <x:c r="H4" t="str">
+        <x:v>0xFF
 </x:v>
       </x:c>
-      <x:c r="H4" t="str">
-        <x:v/>
-      </x:c>
       <x:c r="I4" t="str">
-        <x:v>2016-02-22 14:24:31.273,SEQ,MSG,TaskB,TaskA,4,S,Request(A)
+        <x:v>2016-02-22 14:24:31.273,SEQ,MSG,TaskA,TaskB,4,S,0x0401,0xFF
 </x:v>
       </x:c>
     </x:row>
@@ -1438,6 +1437,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R60ef310fb6ed4531"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4473e6246be2464e"/>
 </x:worksheet>
 </file>